--- a/test1.xlsx
+++ b/test1.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>.\ouput5\00Uncorrelated\n00050\R01000\s000.kp</t>
+          <t>00Uncorrelated/n00050/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,7 +490,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>.\ouput5\00Uncorrelated\n00100\R01000\s000.kp</t>
+          <t>00Uncorrelated/n00100/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -512,7 +512,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>.\ouput5\00Uncorrelated\n00200\R01000\s000.kp</t>
+          <t>00Uncorrelated/n00200/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -534,7 +534,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>.\ouput5\00Uncorrelated\n00500\R01000\s000.kp</t>
+          <t>00Uncorrelated/n00500/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -556,7 +556,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>.\ouput5\00Uncorrelated\n01000\R01000\s000.kp</t>
+          <t>00Uncorrelated/n01000/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>.\ouput5\01WeaklyCorrelated\n00050\R01000\s000.kp</t>
+          <t>01WeaklyCorrelated/n00050/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -600,7 +600,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>.\ouput5\01WeaklyCorrelated\n00100\R01000\s000.kp</t>
+          <t>01WeaklyCorrelated/n00100/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -622,7 +622,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>.\ouput5\01WeaklyCorrelated\n00200\R01000\s000.kp</t>
+          <t>01WeaklyCorrelated/n00200/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -644,7 +644,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>.\ouput5\01WeaklyCorrelated\n00500\R01000\s000.kp</t>
+          <t>01WeaklyCorrelated/n00500/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -666,7 +666,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>.\ouput5\01WeaklyCorrelated\n01000\R01000\s000.kp</t>
+          <t>01WeaklyCorrelated/n01000/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -688,7 +688,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>.\ouput5\02StronglyCorrelated\n00050\R01000\s000.kp</t>
+          <t>02StronglyCorrelated/n00050/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -710,7 +710,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>.\ouput5\02StronglyCorrelated\n00100\R01000\s000.kp</t>
+          <t>02StronglyCorrelated/n00100/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -732,7 +732,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>.\ouput5\02StronglyCorrelated\n00200\R01000\s000.kp</t>
+          <t>02StronglyCorrelated/n00200/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -754,7 +754,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>.\ouput5\02StronglyCorrelated\n00500\R01000\s000.kp</t>
+          <t>02StronglyCorrelated/n00500/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -776,7 +776,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>.\ouput5\02StronglyCorrelated\n01000\R01000\s000.kp</t>
+          <t>02StronglyCorrelated/n01000/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -798,7 +798,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>.\ouput5\03InverseStronglyCorrelated\n00050\R01000\s000.kp</t>
+          <t>03InverseStronglyCorrelated/n00050/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -820,7 +820,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>.\ouput5\03InverseStronglyCorrelated\n00100\R01000\s000.kp</t>
+          <t>03InverseStronglyCorrelated/n00100/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -842,7 +842,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>.\ouput5\03InverseStronglyCorrelated\n00200\R01000\s000.kp</t>
+          <t>03InverseStronglyCorrelated/n00200/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -864,7 +864,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>.\ouput5\03InverseStronglyCorrelated\n00500\R01000\s000.kp</t>
+          <t>03InverseStronglyCorrelated/n00500/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -886,7 +886,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>.\ouput5\03InverseStronglyCorrelated\n01000\R01000\s000.kp</t>
+          <t>03InverseStronglyCorrelated/n01000/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -908,7 +908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>.\ouput5\04AlmostStronglyCorrelated\n00050\R01000\s000.kp</t>
+          <t>04AlmostStronglyCorrelated/n00050/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -930,7 +930,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>.\ouput5\04AlmostStronglyCorrelated\n00100\R01000\s000.kp</t>
+          <t>04AlmostStronglyCorrelated/n00100/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -952,7 +952,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>.\ouput5\04AlmostStronglyCorrelated\n00200\R01000\s000.kp</t>
+          <t>04AlmostStronglyCorrelated/n00200/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -974,7 +974,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>.\ouput5\04AlmostStronglyCorrelated\n00500\R01000\s000.kp</t>
+          <t>04AlmostStronglyCorrelated/n00500/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -996,7 +996,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>.\ouput5\04AlmostStronglyCorrelated\n01000\R01000\s000.kp</t>
+          <t>04AlmostStronglyCorrelated/n01000/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1018,7 +1018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>.\ouput5\05SubsetSum\n00050\R01000\s000.kp</t>
+          <t>05SubsetSum/n00050/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1040,7 +1040,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>.\ouput5\05SubsetSum\n00100\R01000\s000.kp</t>
+          <t>05SubsetSum/n00100/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1062,7 +1062,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>.\ouput5\05SubsetSum\n00200\R01000\s000.kp</t>
+          <t>05SubsetSum/n00200/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1084,7 +1084,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>.\ouput5\05SubsetSum\n00500\R01000\s000.kp</t>
+          <t>05SubsetSum/n00500/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1106,7 +1106,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>.\ouput5\05SubsetSum\n01000\R01000\s000.kp</t>
+          <t>05SubsetSum/n01000/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1128,7 +1128,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>.\ouput5\06UncorrelatedWithSimilarWeights\n00050\R01000\s000.kp</t>
+          <t>06UncorrelatedWithSimilarWeights/n00050/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1150,7 +1150,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>.\ouput5\06UncorrelatedWithSimilarWeights\n00100\R01000\s000.kp</t>
+          <t>06UncorrelatedWithSimilarWeights/n00100/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1172,7 +1172,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>.\ouput5\06UncorrelatedWithSimilarWeights\n00200\R01000\s000.kp</t>
+          <t>06UncorrelatedWithSimilarWeights/n00200/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1194,7 +1194,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>.\ouput5\06UncorrelatedWithSimilarWeights\n00500\R01000\s000.kp</t>
+          <t>06UncorrelatedWithSimilarWeights/n00500/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1216,7 +1216,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>.\ouput5\06UncorrelatedWithSimilarWeights\n01000\R01000\s000.kp</t>
+          <t>06UncorrelatedWithSimilarWeights/n01000/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1238,7 +1238,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>.\ouput5\07SpannerUncorrelated\n00050\R01000\s000.kp</t>
+          <t>07SpannerUncorrelated/n00050/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1260,7 +1260,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>.\ouput5\07SpannerUncorrelated\n00100\R01000\s000.kp</t>
+          <t>07SpannerUncorrelated/n00100/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1282,7 +1282,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>.\ouput5\07SpannerUncorrelated\n00200\R01000\s000.kp</t>
+          <t>07SpannerUncorrelated/n00200/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1304,7 +1304,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>.\ouput5\07SpannerUncorrelated\n00500\R01000\s000.kp</t>
+          <t>07SpannerUncorrelated/n00500/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1326,7 +1326,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>.\ouput5\07SpannerUncorrelated\n01000\R01000\s000.kp</t>
+          <t>07SpannerUncorrelated/n01000/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1348,7 +1348,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>.\ouput5\08SpannerWeaklyCorrelated\n00050\R01000\s000.kp</t>
+          <t>08SpannerWeaklyCorrelated/n00050/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1370,7 +1370,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>.\ouput5\08SpannerWeaklyCorrelated\n00100\R01000\s000.kp</t>
+          <t>08SpannerWeaklyCorrelated/n00100/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1392,7 +1392,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>.\ouput5\08SpannerWeaklyCorrelated\n00200\R01000\s000.kp</t>
+          <t>08SpannerWeaklyCorrelated/n00200/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1414,7 +1414,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>.\ouput5\08SpannerWeaklyCorrelated\n00500\R01000\s000.kp</t>
+          <t>08SpannerWeaklyCorrelated/n00500/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1436,7 +1436,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>.\ouput5\08SpannerWeaklyCorrelated\n01000\R01000\s000.kp</t>
+          <t>08SpannerWeaklyCorrelated/n01000/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1458,7 +1458,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>.\ouput5\09SpannerStronglyCorrelated\n00050\R01000\s000.kp</t>
+          <t>09SpannerStronglyCorrelated/n00050/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1480,7 +1480,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>.\ouput5\09SpannerStronglyCorrelated\n00100\R01000\s000.kp</t>
+          <t>09SpannerStronglyCorrelated/n00100/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1502,7 +1502,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>.\ouput5\09SpannerStronglyCorrelated\n00200\R01000\s000.kp</t>
+          <t>09SpannerStronglyCorrelated/n00200/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1524,7 +1524,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>.\ouput5\09SpannerStronglyCorrelated\n00500\R01000\s000.kp</t>
+          <t>09SpannerStronglyCorrelated/n00500/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1546,7 +1546,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>.\ouput5\09SpannerStronglyCorrelated\n01000\R01000\s000.kp</t>
+          <t>09SpannerStronglyCorrelated/n01000/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1568,7 +1568,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>.\ouput5\10MultipleStronglyCorrelated\n00050\R01000\s000.kp</t>
+          <t>10MultipleStronglyCorrelated/n00050/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1590,7 +1590,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>.\ouput5\10MultipleStronglyCorrelated\n00100\R01000\s000.kp</t>
+          <t>10MultipleStronglyCorrelated/n00100/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1612,7 +1612,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>.\ouput5\10MultipleStronglyCorrelated\n00200\R01000\s000.kp</t>
+          <t>10MultipleStronglyCorrelated/n00200/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1634,7 +1634,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>.\ouput5\10MultipleStronglyCorrelated\n00500\R01000\s000.kp</t>
+          <t>10MultipleStronglyCorrelated/n00500/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1656,7 +1656,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>.\ouput5\10MultipleStronglyCorrelated\n01000\R01000\s000.kp</t>
+          <t>10MultipleStronglyCorrelated/n01000/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1678,7 +1678,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>.\ouput5\11ProfitCeiling\n00050\R01000\s000.kp</t>
+          <t>11ProfitCeiling/n00050/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1700,7 +1700,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>.\ouput5\11ProfitCeiling\n00100\R01000\s000.kp</t>
+          <t>11ProfitCeiling/n00100/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1722,7 +1722,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>.\ouput5\11ProfitCeiling\n00200\R01000\s000.kp</t>
+          <t>11ProfitCeiling/n00200/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1744,7 +1744,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>.\ouput5\11ProfitCeiling\n00500\R01000\s000.kp</t>
+          <t>11ProfitCeiling/n00500/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1766,7 +1766,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>.\ouput5\11ProfitCeiling\n01000\R01000\s000.kp</t>
+          <t>11ProfitCeiling/n01000/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1788,7 +1788,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>.\ouput5\12Circle\n00050\R01000\s000.kp</t>
+          <t>12Circle/n00050/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1810,7 +1810,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>.\ouput5\12Circle\n00100\R01000\s000.kp</t>
+          <t>12Circle/n00100/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1832,7 +1832,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>.\ouput5\12Circle\n00200\R01000\s000.kp</t>
+          <t>12Circle/n00200/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1854,7 +1854,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>.\ouput5\12Circle\n00500\R01000\s000.kp</t>
+          <t>12Circle/n00500/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1876,7 +1876,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>.\ouput5\12Circle\n01000\R01000\s000.kp</t>
+          <t>12Circle/n01000/R01000/s000.kp</t>
         </is>
       </c>
       <c r="B66" t="n">
